--- a/ig/30-location-erreur-de-validation-sur-lextension-geolocation/StructureDefinition-ror-meta-creation-date.xlsx
+++ b/ig/30-location-erreur-de-validation-sur-lextension-geolocation/StructureDefinition-ror-meta-creation-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-10T12:14:50+00:00</t>
+    <t>2023-05-10T12:22:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
